--- a/proVidioETG/testDate/VariationProductSkew.xlsx
+++ b/proVidioETG/testDate/VariationProductSkew.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Variation Product</t>
   </si>
   <si>
-    <t xml:space="preserve">701642842156M</t>
+    <t xml:space="preserve">25493624M</t>
   </si>
 </sst>
 </file>
@@ -100,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,16 +138,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
